--- a/comments.xlsx
+++ b/comments.xlsx
@@ -90,12 +90,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -122,6 +128,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +433,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,11 +454,13 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">

--- a/comments.xlsx
+++ b/comments.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t xml:space="preserve">1. FONTS </t>
   </si>
@@ -61,6 +61,36 @@
   </si>
   <si>
     <t>STATUS</t>
+  </si>
+  <si>
+    <t>Tablet Landscape</t>
+  </si>
+  <si>
+    <t>@media(max-width:1024px) and (min-width:768px) and (orientation:landscape){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>Tablet Portrait</t>
+  </si>
+  <si>
+    <t>@media(max-width:1024px) and (min-width:768px) and (orientation:portrait){</t>
+  </si>
+  <si>
+    <t>Mobile Landscape</t>
+  </si>
+  <si>
+    <t>@media(max-width:767) and (min-width:320px) and (orientation:landscape){</t>
+  </si>
+  <si>
+    <t>Mobile Portrait</t>
+  </si>
+  <si>
+    <t>@media(max-width:767) and (min-width:320px) and (orientation:portrait){</t>
   </si>
 </sst>
 </file>
@@ -430,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,55 +496,149 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
